--- a/Buglist_RevC_20160708_for meeting 0803.xlsx
+++ b/Buglist_RevC_20160708_for meeting 0803.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chichiu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chichiu\Documents\GitHub\snapNeat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="10035" windowHeight="4530" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="14310" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="4" r:id="rId1"/>
@@ -8385,16 +8385,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>544287</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2167288</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>683151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>326573</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>707571</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>421821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8411,8 +8411,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17321894" y="5227937"/>
-          <a:ext cx="6164036" cy="4419527"/>
+          <a:off x="14985217" y="5227937"/>
+          <a:ext cx="8500713" cy="4950205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
